--- a/biology/Botanique/Kew_Bulletin/Kew_Bulletin.xlsx
+++ b/biology/Botanique/Kew_Bulletin/Kew_Bulletin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Kew Bulletin est une revue scientifique trimestrielle à comité de lecture sur la taxonomie et la conservation des plantes et des champignons publiée par Springer Science+Business Media au nom des Jardins botaniques royaux de Kew. Des articles sur la palynologie, la cytologie, l'anatomie, la phytogéographie et la phytochimie liés à la taxonomie sont également inclus[1],[2].
-Le journal a été créé en 1887 sous le nom de Kew Bulletin of Miscellaneous Information par William Turner Thiselton-Dyer, alors directeur des Jardins botaniques royaux de Kew[3]. Il cherchait à faciliter la communication entre les botanistes de Kew et des régions éloignées de l'Empire britannique et accordait la priorité à l'étude des informations d'importance économique[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Kew Bulletin est une revue scientifique trimestrielle à comité de lecture sur la taxonomie et la conservation des plantes et des champignons publiée par Springer Science+Business Media au nom des Jardins botaniques royaux de Kew. Des articles sur la palynologie, la cytologie, l'anatomie, la phytogéographie et la phytochimie liés à la taxonomie sont également inclus,.
+Le journal a été créé en 1887 sous le nom de Kew Bulletin of Miscellaneous Information par William Turner Thiselton-Dyer, alors directeur des Jardins botaniques royaux de Kew. Il cherchait à faciliter la communication entre les botanistes de Kew et des régions éloignées de l'Empire britannique et accordait la priorité à l'étude des informations d'importance économique.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Résumé et indexation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La revue est résumée et indexée dans :
 Academic OneFile
